--- a/Development/doc/graphs.xlsx
+++ b/Development/doc/graphs.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t xml:space="preserve">Male</t>
   </si>
@@ -60,7 +60,13 @@
     <t xml:space="preserve">Progression (distribuzione, %)</t>
   </si>
   <si>
-    <t xml:space="preserve">Missing Values</t>
+    <t xml:space="preserve">Plots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-istogrammi per ogni colonna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-grafici per ogni possibile combinazione di colonne</t>
   </si>
   <si>
     <t xml:space="preserve">Age (media, range, mediana, SD, Q1, Q2)</t>
@@ -405,16 +411,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K9"/>
+  <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.84"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,11 +555,62 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -573,7 +630,7 @@
   <dimension ref="B2:N27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -594,63 +651,54 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6"/>
@@ -669,30 +717,30 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6"/>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6"/>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -701,7 +749,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -710,7 +758,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -719,7 +767,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -728,7 +776,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -737,7 +785,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -747,17 +795,17 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -808,7 +856,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -825,7 +873,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -842,7 +890,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -859,7 +907,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -876,7 +924,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
